--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Dhh-Cdon.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Dhh-Cdon.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.08864570572383</v>
+        <v>3.778327333333333</v>
       </c>
       <c r="H2">
-        <v>3.08864570572383</v>
+        <v>11.334982</v>
       </c>
       <c r="I2">
-        <v>0.6493573882380687</v>
+        <v>0.6340793198407454</v>
       </c>
       <c r="J2">
-        <v>0.6493573882380687</v>
+        <v>0.6340793198407454</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.51032266171251</v>
+        <v>2.616009333333333</v>
       </c>
       <c r="N2">
-        <v>2.51032266171251</v>
+        <v>7.848027999999999</v>
       </c>
       <c r="O2">
-        <v>0.07967325381632903</v>
+        <v>0.07956101777075364</v>
       </c>
       <c r="P2">
-        <v>0.07967325381632903</v>
+        <v>0.07956101777075364</v>
       </c>
       <c r="Q2">
-        <v>7.75349730907956</v>
+        <v>9.884139568388443</v>
       </c>
       <c r="R2">
-        <v>7.75349730907956</v>
+        <v>88.95725611549599</v>
       </c>
       <c r="S2">
-        <v>0.05173641601060015</v>
+        <v>0.05044799603391693</v>
       </c>
       <c r="T2">
-        <v>0.05173641601060015</v>
+        <v>0.05044799603391693</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.08864570572383</v>
+        <v>3.778327333333333</v>
       </c>
       <c r="H3">
-        <v>3.08864570572383</v>
+        <v>11.334982</v>
       </c>
       <c r="I3">
-        <v>0.6493573882380687</v>
+        <v>0.6340793198407454</v>
       </c>
       <c r="J3">
-        <v>0.6493573882380687</v>
+        <v>0.6340793198407454</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>12.3186894789832</v>
+        <v>12.31965066666667</v>
       </c>
       <c r="N3">
-        <v>12.3186894789832</v>
+        <v>36.958952</v>
       </c>
       <c r="O3">
-        <v>0.3909736738280585</v>
+        <v>0.3746790705716686</v>
       </c>
       <c r="P3">
-        <v>0.3909736738280585</v>
+        <v>0.3746790705716685</v>
       </c>
       <c r="Q3">
-        <v>38.04806735940679</v>
+        <v>46.54767285098489</v>
       </c>
       <c r="R3">
-        <v>38.04806735940679</v>
+        <v>418.9290556588639</v>
       </c>
       <c r="S3">
-        <v>0.2538816437068306</v>
+        <v>0.2375762502266463</v>
       </c>
       <c r="T3">
-        <v>0.2538816437068306</v>
+        <v>0.2375762502266462</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.08864570572383</v>
+        <v>3.778327333333333</v>
       </c>
       <c r="H4">
-        <v>3.08864570572383</v>
+        <v>11.334982</v>
       </c>
       <c r="I4">
-        <v>0.6493573882380687</v>
+        <v>0.6340793198407454</v>
       </c>
       <c r="J4">
-        <v>0.6493573882380687</v>
+        <v>0.6340793198407454</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.113661710738588</v>
+        <v>0.116602</v>
       </c>
       <c r="N4">
-        <v>0.113661710738588</v>
+        <v>0.349806</v>
       </c>
       <c r="O4">
-        <v>0.003607424044324224</v>
+        <v>0.003546231152885317</v>
       </c>
       <c r="P4">
-        <v>0.003607424044324224</v>
+        <v>0.003546231152885317</v>
       </c>
       <c r="Q4">
-        <v>0.3510607547779639</v>
+        <v>0.4405605237213333</v>
       </c>
       <c r="R4">
-        <v>0.3510607547779639</v>
+        <v>3.965044713491999</v>
       </c>
       <c r="S4">
-        <v>0.002342507455689589</v>
+        <v>0.002248591837419584</v>
       </c>
       <c r="T4">
-        <v>0.002342507455689589</v>
+        <v>0.002248591837419584</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.08864570572383</v>
+        <v>3.778327333333333</v>
       </c>
       <c r="H5">
-        <v>3.08864570572383</v>
+        <v>11.334982</v>
       </c>
       <c r="I5">
-        <v>0.6493573882380687</v>
+        <v>0.6340793198407454</v>
       </c>
       <c r="J5">
-        <v>0.6493573882380687</v>
+        <v>0.6340793198407454</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>16.5650472653606</v>
+        <v>0.05990966666666667</v>
       </c>
       <c r="N5">
-        <v>16.5650472653606</v>
+        <v>0.179729</v>
       </c>
       <c r="O5">
-        <v>0.5257456483112882</v>
+        <v>0.001822040156192076</v>
       </c>
       <c r="P5">
-        <v>0.5257456483112882</v>
+        <v>0.001822040156192076</v>
       </c>
       <c r="Q5">
-        <v>51.1635621012683</v>
+        <v>0.2263583310975556</v>
       </c>
       <c r="R5">
-        <v>51.1635621012683</v>
+        <v>2.037224979878</v>
       </c>
       <c r="S5">
-        <v>0.3413968210649483</v>
+        <v>0.001155317982960797</v>
       </c>
       <c r="T5">
-        <v>0.3413968210649483</v>
+        <v>0.001155317982960797</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.09106225476578</v>
+        <v>3.778327333333333</v>
       </c>
       <c r="H6">
-        <v>1.09106225476578</v>
+        <v>11.334982</v>
       </c>
       <c r="I6">
-        <v>0.2293851103889591</v>
+        <v>0.6340793198407454</v>
       </c>
       <c r="J6">
-        <v>0.2293851103889591</v>
+        <v>0.6340793198407454</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.51032266171251</v>
+        <v>17.76836966666667</v>
       </c>
       <c r="N6">
-        <v>2.51032266171251</v>
+        <v>53.305109</v>
       </c>
       <c r="O6">
-        <v>0.07967325381632903</v>
+        <v>0.5403916403485004</v>
       </c>
       <c r="P6">
-        <v>0.07967325381632903</v>
+        <v>0.5403916403485003</v>
       </c>
       <c r="Q6">
-        <v>2.738918303477686</v>
+        <v>67.13471678033757</v>
       </c>
       <c r="R6">
-        <v>2.738918303477686</v>
+        <v>604.2124510230381</v>
       </c>
       <c r="S6">
-        <v>0.01827585812170619</v>
+        <v>0.3426511637598018</v>
       </c>
       <c r="T6">
-        <v>0.01827585812170619</v>
+        <v>0.3426511637598018</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.09106225476578</v>
+        <v>1.390555</v>
       </c>
       <c r="H7">
-        <v>1.09106225476578</v>
+        <v>4.171665</v>
       </c>
       <c r="I7">
-        <v>0.2293851103889591</v>
+        <v>0.2333630971626989</v>
       </c>
       <c r="J7">
-        <v>0.2293851103889591</v>
+        <v>0.2333630971626989</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.3186894789832</v>
+        <v>2.616009333333333</v>
       </c>
       <c r="N7">
-        <v>12.3186894789832</v>
+        <v>7.848027999999999</v>
       </c>
       <c r="O7">
-        <v>0.3909736738280585</v>
+        <v>0.07956101777075364</v>
       </c>
       <c r="P7">
-        <v>0.3909736738280585</v>
+        <v>0.07956101777075364</v>
       </c>
       <c r="Q7">
-        <v>13.4404571186989</v>
+        <v>3.637704858513333</v>
       </c>
       <c r="R7">
-        <v>13.4404571186989</v>
+        <v>32.73934372662</v>
       </c>
       <c r="S7">
-        <v>0.08968353933022608</v>
+        <v>0.01856660552039959</v>
       </c>
       <c r="T7">
-        <v>0.08968353933022608</v>
+        <v>0.01856660552039959</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.09106225476578</v>
+        <v>1.390555</v>
       </c>
       <c r="H8">
-        <v>1.09106225476578</v>
+        <v>4.171665</v>
       </c>
       <c r="I8">
-        <v>0.2293851103889591</v>
+        <v>0.2333630971626989</v>
       </c>
       <c r="J8">
-        <v>0.2293851103889591</v>
+        <v>0.2333630971626989</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.113661710738588</v>
+        <v>12.31965066666667</v>
       </c>
       <c r="N8">
-        <v>0.113661710738588</v>
+        <v>36.958952</v>
       </c>
       <c r="O8">
-        <v>0.003607424044324224</v>
+        <v>0.3746790705716686</v>
       </c>
       <c r="P8">
-        <v>0.003607424044324224</v>
+        <v>0.3746790705716685</v>
       </c>
       <c r="Q8">
-        <v>0.1240120023989797</v>
+        <v>17.13115183278667</v>
       </c>
       <c r="R8">
-        <v>0.1240120023989797</v>
+        <v>154.18036649508</v>
       </c>
       <c r="S8">
-        <v>0.0008274893626270972</v>
+        <v>0.08743626835064602</v>
       </c>
       <c r="T8">
-        <v>0.0008274893626270972</v>
+        <v>0.08743626835064601</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,185 +959,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.09106225476578</v>
+        <v>1.390555</v>
       </c>
       <c r="H9">
-        <v>1.09106225476578</v>
+        <v>4.171665</v>
       </c>
       <c r="I9">
-        <v>0.2293851103889591</v>
+        <v>0.2333630971626989</v>
       </c>
       <c r="J9">
-        <v>0.2293851103889591</v>
+        <v>0.2333630971626989</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>16.5650472653606</v>
+        <v>0.116602</v>
       </c>
       <c r="N9">
-        <v>16.5650472653606</v>
+        <v>0.349806</v>
       </c>
       <c r="O9">
-        <v>0.5257456483112882</v>
+        <v>0.003546231152885317</v>
       </c>
       <c r="P9">
-        <v>0.5257456483112882</v>
+        <v>0.003546231152885317</v>
       </c>
       <c r="Q9">
-        <v>18.07349781964605</v>
+        <v>0.16214149411</v>
       </c>
       <c r="R9">
-        <v>18.07349781964605</v>
+        <v>1.45927344699</v>
       </c>
       <c r="S9">
-        <v>0.1205982235743997</v>
+        <v>0.0008275594850921659</v>
       </c>
       <c r="T9">
-        <v>0.1205982235743997</v>
+        <v>0.0008275594850921659</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.226073818979451</v>
+        <v>1.390555</v>
       </c>
       <c r="H10">
-        <v>0.226073818979451</v>
+        <v>4.171665</v>
       </c>
       <c r="I10">
-        <v>0.04752979740261232</v>
+        <v>0.2333630971626989</v>
       </c>
       <c r="J10">
-        <v>0.04752979740261232</v>
+        <v>0.2333630971626989</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>2.51032266171251</v>
+        <v>0.05990966666666667</v>
       </c>
       <c r="N10">
-        <v>2.51032266171251</v>
+        <v>0.179729</v>
       </c>
       <c r="O10">
-        <v>0.07967325381632903</v>
+        <v>0.001822040156192076</v>
       </c>
       <c r="P10">
-        <v>0.07967325381632903</v>
+        <v>0.001822040156192076</v>
       </c>
       <c r="Q10">
-        <v>0.5675182310040077</v>
+        <v>0.08330768653166666</v>
       </c>
       <c r="R10">
-        <v>0.5675182310040077</v>
+        <v>0.749769178785</v>
       </c>
       <c r="S10">
-        <v>0.003786853612297028</v>
+        <v>0.0004251969340037904</v>
       </c>
       <c r="T10">
-        <v>0.003786853612297028</v>
+        <v>0.0004251969340037904</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.226073818979451</v>
+        <v>1.390555</v>
       </c>
       <c r="H11">
-        <v>0.226073818979451</v>
+        <v>4.171665</v>
       </c>
       <c r="I11">
-        <v>0.04752979740261232</v>
+        <v>0.2333630971626989</v>
       </c>
       <c r="J11">
-        <v>0.04752979740261232</v>
+        <v>0.2333630971626989</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>12.3186894789832</v>
+        <v>17.76836966666667</v>
       </c>
       <c r="N11">
-        <v>12.3186894789832</v>
+        <v>53.305109</v>
       </c>
       <c r="O11">
-        <v>0.3909736738280585</v>
+        <v>0.5403916403485004</v>
       </c>
       <c r="P11">
-        <v>0.3909736738280585</v>
+        <v>0.5403916403485003</v>
       </c>
       <c r="Q11">
-        <v>2.784933175335716</v>
+        <v>24.70789528183167</v>
       </c>
       <c r="R11">
-        <v>2.784933175335716</v>
+        <v>222.371057536485</v>
       </c>
       <c r="S11">
-        <v>0.01858289950680266</v>
+        <v>0.1261074668725573</v>
       </c>
       <c r="T11">
-        <v>0.01858289950680266</v>
+        <v>0.1261074668725573</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.226073818979451</v>
+        <v>0.2515026666666667</v>
       </c>
       <c r="H12">
-        <v>0.226073818979451</v>
+        <v>0.754508</v>
       </c>
       <c r="I12">
-        <v>0.04752979740261232</v>
+        <v>0.04220720592713788</v>
       </c>
       <c r="J12">
-        <v>0.04752979740261232</v>
+        <v>0.04220720592713787</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.113661710738588</v>
+        <v>2.616009333333333</v>
       </c>
       <c r="N12">
-        <v>0.113661710738588</v>
+        <v>7.848027999999999</v>
       </c>
       <c r="O12">
-        <v>0.003607424044324224</v>
+        <v>0.07956101777075364</v>
       </c>
       <c r="P12">
-        <v>0.003607424044324224</v>
+        <v>0.07956101777075364</v>
       </c>
       <c r="Q12">
-        <v>0.02569593701841026</v>
+        <v>0.6579333233582221</v>
       </c>
       <c r="R12">
-        <v>0.02569593701841026</v>
+        <v>5.921399910223999</v>
       </c>
       <c r="S12">
-        <v>0.0001714601339720427</v>
+        <v>0.003358048260822875</v>
       </c>
       <c r="T12">
-        <v>0.0001714601339720427</v>
+        <v>0.003358048260822874</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,247 +1207,247 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.226073818979451</v>
+        <v>0.2515026666666667</v>
       </c>
       <c r="H13">
-        <v>0.226073818979451</v>
+        <v>0.754508</v>
       </c>
       <c r="I13">
-        <v>0.04752979740261232</v>
+        <v>0.04220720592713788</v>
       </c>
       <c r="J13">
-        <v>0.04752979740261232</v>
+        <v>0.04220720592713787</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>16.5650472653606</v>
+        <v>12.31965066666667</v>
       </c>
       <c r="N13">
-        <v>16.5650472653606</v>
+        <v>36.958952</v>
       </c>
       <c r="O13">
-        <v>0.5257456483112882</v>
+        <v>0.3746790705716686</v>
       </c>
       <c r="P13">
-        <v>0.5257456483112882</v>
+        <v>0.3746790705716685</v>
       </c>
       <c r="Q13">
-        <v>3.744923496855182</v>
+        <v>3.098424995068444</v>
       </c>
       <c r="R13">
-        <v>3.744923496855182</v>
+        <v>27.88582495561599</v>
       </c>
       <c r="S13">
-        <v>0.0249885841495406</v>
+        <v>0.01581415668820704</v>
       </c>
       <c r="T13">
-        <v>0.0249885841495406</v>
+        <v>0.01581415668820704</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.350683245290871</v>
+        <v>0.2515026666666667</v>
       </c>
       <c r="H14">
-        <v>0.350683245290871</v>
+        <v>0.754508</v>
       </c>
       <c r="I14">
-        <v>0.07372770397035994</v>
+        <v>0.04220720592713788</v>
       </c>
       <c r="J14">
-        <v>0.07372770397035994</v>
+        <v>0.04220720592713787</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.51032266171251</v>
+        <v>0.116602</v>
       </c>
       <c r="N14">
-        <v>2.51032266171251</v>
+        <v>0.349806</v>
       </c>
       <c r="O14">
-        <v>0.07967325381632903</v>
+        <v>0.003546231152885317</v>
       </c>
       <c r="P14">
-        <v>0.07967325381632903</v>
+        <v>0.003546231152885317</v>
       </c>
       <c r="Q14">
-        <v>0.8803280977365604</v>
+        <v>0.02932571393866666</v>
       </c>
       <c r="R14">
-        <v>0.8803280977365604</v>
+        <v>0.263931425448</v>
       </c>
       <c r="S14">
-        <v>0.005874126071725657</v>
+        <v>0.0001496765085350621</v>
       </c>
       <c r="T14">
-        <v>0.005874126071725657</v>
+        <v>0.0001496765085350621</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.350683245290871</v>
+        <v>0.2515026666666667</v>
       </c>
       <c r="H15">
-        <v>0.350683245290871</v>
+        <v>0.754508</v>
       </c>
       <c r="I15">
-        <v>0.07372770397035994</v>
+        <v>0.04220720592713788</v>
       </c>
       <c r="J15">
-        <v>0.07372770397035994</v>
+        <v>0.04220720592713787</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>12.3186894789832</v>
+        <v>0.05990966666666667</v>
       </c>
       <c r="N15">
-        <v>12.3186894789832</v>
+        <v>0.179729</v>
       </c>
       <c r="O15">
-        <v>0.3909736738280585</v>
+        <v>0.001822040156192076</v>
       </c>
       <c r="P15">
-        <v>0.3909736738280585</v>
+        <v>0.001822040156192076</v>
       </c>
       <c r="Q15">
-        <v>4.319958004220338</v>
+        <v>0.01506744092577778</v>
       </c>
       <c r="R15">
-        <v>4.319958004220338</v>
+        <v>0.135606968332</v>
       </c>
       <c r="S15">
-        <v>0.02882559128419916</v>
+        <v>7.69032240799134E-05</v>
       </c>
       <c r="T15">
-        <v>0.02882559128419916</v>
+        <v>7.690322407991339E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.350683245290871</v>
+        <v>0.2515026666666667</v>
       </c>
       <c r="H16">
-        <v>0.350683245290871</v>
+        <v>0.754508</v>
       </c>
       <c r="I16">
-        <v>0.07372770397035994</v>
+        <v>0.04220720592713788</v>
       </c>
       <c r="J16">
-        <v>0.07372770397035994</v>
+        <v>0.04220720592713787</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.113661710738588</v>
+        <v>17.76836966666667</v>
       </c>
       <c r="N16">
-        <v>0.113661710738588</v>
+        <v>53.305109</v>
       </c>
       <c r="O16">
-        <v>0.003607424044324224</v>
+        <v>0.5403916403485004</v>
       </c>
       <c r="P16">
-        <v>0.003607424044324224</v>
+        <v>0.5403916403485003</v>
       </c>
       <c r="Q16">
-        <v>0.03985925758712029</v>
+        <v>4.468792353485778</v>
       </c>
       <c r="R16">
-        <v>0.03985925758712029</v>
+        <v>40.219131181372</v>
       </c>
       <c r="S16">
-        <v>0.000265967092035495</v>
+        <v>0.02280842124549299</v>
       </c>
       <c r="T16">
-        <v>0.000265967092035495</v>
+        <v>0.02280842124549298</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1452,61 +1455,619 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.1830476666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.549143</v>
+      </c>
+      <c r="I17">
+        <v>0.03071908009516967</v>
+      </c>
+      <c r="J17">
+        <v>0.03071908009516967</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.616009333333333</v>
+      </c>
+      <c r="N17">
+        <v>7.848027999999999</v>
+      </c>
+      <c r="O17">
+        <v>0.07956101777075364</v>
+      </c>
+      <c r="P17">
+        <v>0.07956101777075364</v>
+      </c>
+      <c r="Q17">
+        <v>0.4788544044448889</v>
+      </c>
+      <c r="R17">
+        <v>4.309689640004</v>
+      </c>
+      <c r="S17">
+        <v>0.002444041277352998</v>
+      </c>
+      <c r="T17">
+        <v>0.002444041277352998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.1830476666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.549143</v>
+      </c>
+      <c r="I18">
+        <v>0.03071908009516967</v>
+      </c>
+      <c r="J18">
+        <v>0.03071908009516967</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>12.31965066666667</v>
+      </c>
+      <c r="N18">
+        <v>36.958952</v>
+      </c>
+      <c r="O18">
+        <v>0.3746790705716686</v>
+      </c>
+      <c r="P18">
+        <v>0.3746790705716685</v>
+      </c>
+      <c r="Q18">
+        <v>2.255083308681778</v>
+      </c>
+      <c r="R18">
+        <v>20.295749778136</v>
+      </c>
+      <c r="S18">
+        <v>0.01150979637887482</v>
+      </c>
+      <c r="T18">
+        <v>0.01150979637887481</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.1830476666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.549143</v>
+      </c>
+      <c r="I19">
+        <v>0.03071908009516967</v>
+      </c>
+      <c r="J19">
+        <v>0.03071908009516967</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.116602</v>
+      </c>
+      <c r="N19">
+        <v>0.349806</v>
+      </c>
+      <c r="O19">
+        <v>0.003546231152885317</v>
+      </c>
+      <c r="P19">
+        <v>0.003546231152885317</v>
+      </c>
+      <c r="Q19">
+        <v>0.02134372402866667</v>
+      </c>
+      <c r="R19">
+        <v>0.192093516258</v>
+      </c>
+      <c r="S19">
+        <v>0.0001089369588214699</v>
+      </c>
+      <c r="T19">
+        <v>0.0001089369588214699</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.1830476666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.549143</v>
+      </c>
+      <c r="I20">
+        <v>0.03071908009516967</v>
+      </c>
+      <c r="J20">
+        <v>0.03071908009516967</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.05990966666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.179729</v>
+      </c>
+      <c r="O20">
+        <v>0.001822040156192076</v>
+      </c>
+      <c r="P20">
+        <v>0.001822040156192076</v>
+      </c>
+      <c r="Q20">
+        <v>0.01096632469411111</v>
+      </c>
+      <c r="R20">
+        <v>0.09869692224700001</v>
+      </c>
+      <c r="S20">
+        <v>5.597139749467983E-05</v>
+      </c>
+      <c r="T20">
+        <v>5.597139749467982E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.1830476666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.549143</v>
+      </c>
+      <c r="I21">
+        <v>0.03071908009516967</v>
+      </c>
+      <c r="J21">
+        <v>0.03071908009516967</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>17.76836966666667</v>
+      </c>
+      <c r="N21">
+        <v>53.305109</v>
+      </c>
+      <c r="O21">
+        <v>0.5403916403485004</v>
+      </c>
+      <c r="P21">
+        <v>0.5403916403485003</v>
+      </c>
+      <c r="Q21">
+        <v>3.252458607954112</v>
+      </c>
+      <c r="R21">
+        <v>29.272127471587</v>
+      </c>
+      <c r="S21">
+        <v>0.01660033408262571</v>
+      </c>
+      <c r="T21">
+        <v>0.0166003340826257</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.3553286666666667</v>
+      </c>
+      <c r="H22">
+        <v>1.065986</v>
+      </c>
+      <c r="I22">
+        <v>0.05963129697424812</v>
+      </c>
+      <c r="J22">
+        <v>0.05963129697424811</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>2.616009333333333</v>
+      </c>
+      <c r="N22">
+        <v>7.848027999999999</v>
+      </c>
+      <c r="O22">
+        <v>0.07956101777075364</v>
+      </c>
+      <c r="P22">
+        <v>0.07956101777075364</v>
+      </c>
+      <c r="Q22">
+        <v>0.9295431084008888</v>
+      </c>
+      <c r="R22">
+        <v>8.365887975608</v>
+      </c>
+      <c r="S22">
+        <v>0.004744326678261242</v>
+      </c>
+      <c r="T22">
+        <v>0.004744326678261242</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.3553286666666667</v>
+      </c>
+      <c r="H23">
+        <v>1.065986</v>
+      </c>
+      <c r="I23">
+        <v>0.05963129697424812</v>
+      </c>
+      <c r="J23">
+        <v>0.05963129697424811</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>12.31965066666667</v>
+      </c>
+      <c r="N23">
+        <v>36.958952</v>
+      </c>
+      <c r="O23">
+        <v>0.3746790705716686</v>
+      </c>
+      <c r="P23">
+        <v>0.3746790705716685</v>
+      </c>
+      <c r="Q23">
+        <v>4.377525045185778</v>
+      </c>
+      <c r="R23">
+        <v>39.397725406672</v>
+      </c>
+      <c r="S23">
+        <v>0.02234259892729444</v>
+      </c>
+      <c r="T23">
+        <v>0.02234259892729443</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.3553286666666667</v>
+      </c>
+      <c r="H24">
+        <v>1.065986</v>
+      </c>
+      <c r="I24">
+        <v>0.05963129697424812</v>
+      </c>
+      <c r="J24">
+        <v>0.05963129697424811</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.116602</v>
+      </c>
+      <c r="N24">
+        <v>0.349806</v>
+      </c>
+      <c r="O24">
+        <v>0.003546231152885317</v>
+      </c>
+      <c r="P24">
+        <v>0.003546231152885317</v>
+      </c>
+      <c r="Q24">
+        <v>0.04143203319066666</v>
+      </c>
+      <c r="R24">
+        <v>0.372888298716</v>
+      </c>
+      <c r="S24">
+        <v>0.0002114663630170346</v>
+      </c>
+      <c r="T24">
+        <v>0.0002114663630170346</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0.350683245290871</v>
-      </c>
-      <c r="H17">
-        <v>0.350683245290871</v>
-      </c>
-      <c r="I17">
-        <v>0.07372770397035994</v>
-      </c>
-      <c r="J17">
-        <v>0.07372770397035994</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>16.5650472653606</v>
-      </c>
-      <c r="N17">
-        <v>16.5650472653606</v>
-      </c>
-      <c r="O17">
-        <v>0.5257456483112882</v>
-      </c>
-      <c r="P17">
-        <v>0.5257456483112882</v>
-      </c>
-      <c r="Q17">
-        <v>5.809084533413324</v>
-      </c>
-      <c r="R17">
-        <v>5.809084533413324</v>
-      </c>
-      <c r="S17">
-        <v>0.03876201952239963</v>
-      </c>
-      <c r="T17">
-        <v>0.03876201952239963</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.3553286666666667</v>
+      </c>
+      <c r="H25">
+        <v>1.065986</v>
+      </c>
+      <c r="I25">
+        <v>0.05963129697424812</v>
+      </c>
+      <c r="J25">
+        <v>0.05963129697424811</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.05990966666666667</v>
+      </c>
+      <c r="N25">
+        <v>0.179729</v>
+      </c>
+      <c r="O25">
+        <v>0.001822040156192076</v>
+      </c>
+      <c r="P25">
+        <v>0.001822040156192076</v>
+      </c>
+      <c r="Q25">
+        <v>0.02128762197711111</v>
+      </c>
+      <c r="R25">
+        <v>0.191588597794</v>
+      </c>
+      <c r="S25">
+        <v>0.0001086506176528951</v>
+      </c>
+      <c r="T25">
+        <v>0.0001086506176528951</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.3553286666666667</v>
+      </c>
+      <c r="H26">
+        <v>1.065986</v>
+      </c>
+      <c r="I26">
+        <v>0.05963129697424812</v>
+      </c>
+      <c r="J26">
+        <v>0.05963129697424811</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>17.76836966666667</v>
+      </c>
+      <c r="N26">
+        <v>53.305109</v>
+      </c>
+      <c r="O26">
+        <v>0.5403916403485004</v>
+      </c>
+      <c r="P26">
+        <v>0.5403916403485003</v>
+      </c>
+      <c r="Q26">
+        <v>6.313611102497112</v>
+      </c>
+      <c r="R26">
+        <v>56.82249992247401</v>
+      </c>
+      <c r="S26">
+        <v>0.03222425438802251</v>
+      </c>
+      <c r="T26">
+        <v>0.0322242543880225</v>
       </c>
     </row>
   </sheetData>
